--- a/example_data/EPA/label_corrected/000524-00636-20170411_2018-12-07_230651.xlsx
+++ b/example_data/EPA/label_corrected/000524-00636-20170411_2018-12-07_230651.xlsx
@@ -864,7 +864,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3330,7 +3330,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G127" t="inlineStr"/>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G131" t="inlineStr"/>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G153" t="inlineStr"/>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G160" t="inlineStr"/>
@@ -5412,7 +5412,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G166" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G175" t="inlineStr"/>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G279" t="inlineStr"/>
@@ -8265,7 +8265,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G283" t="inlineStr"/>
@@ -8476,7 +8476,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G290" t="inlineStr"/>
@@ -8505,7 +8505,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G291" t="inlineStr"/>
@@ -8534,7 +8534,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Env warning - water || Use Restrictions</t>
+          <t>use restrictions || env warning - water</t>
         </is>
       </c>
       <c r="G292" t="inlineStr"/>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G298" t="inlineStr"/>
@@ -8722,7 +8722,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G299" t="inlineStr"/>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G300" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G303" t="inlineStr"/>
@@ -9020,7 +9020,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G310" t="inlineStr"/>
@@ -9052,7 +9052,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Env warning - water || Use Restrictions</t>
+          <t>use restrictions || env warning - water</t>
         </is>
       </c>
       <c r="G311" t="inlineStr"/>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G312" t="inlineStr"/>
@@ -9124,7 +9124,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G313" t="inlineStr"/>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Off Target Movement || Use Restrictions</t>
+          <t>use restrictions || off target movement</t>
         </is>
       </c>
       <c r="G315" t="inlineStr"/>
@@ -9226,7 +9226,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Off Target Movement || Use Restrictions</t>
+          <t>use restrictions || off target movement</t>
         </is>
       </c>
       <c r="G317" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Off Target Movement || Use Restrictions</t>
+          <t>use restrictions || off target movement</t>
         </is>
       </c>
       <c r="G318" t="inlineStr"/>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Off Target Movement || Use Restrictions</t>
+          <t>use restrictions || off target movement</t>
         </is>
       </c>
       <c r="G320" t="inlineStr"/>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Off Target Movement || Use Restrictions</t>
+          <t>use restrictions || off target movement</t>
         </is>
       </c>
       <c r="G321" t="inlineStr"/>
@@ -9403,7 +9403,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G323" t="inlineStr"/>
@@ -9432,7 +9432,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G324" t="inlineStr"/>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G325" t="inlineStr"/>
@@ -9497,7 +9497,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G326" t="inlineStr"/>
@@ -9527,7 +9527,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G327" t="inlineStr"/>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G328" t="inlineStr"/>
@@ -9612,7 +9612,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G330" t="inlineStr"/>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G332" t="inlineStr"/>
@@ -9692,7 +9692,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G333" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G336" t="inlineStr"/>
@@ -9906,7 +9906,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G341" t="inlineStr"/>
@@ -10587,7 +10587,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G367" t="inlineStr"/>
@@ -10633,7 +10633,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G368" t="inlineStr"/>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G370" t="inlineStr"/>
@@ -10720,7 +10720,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G371" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G372" t="inlineStr"/>
@@ -10795,7 +10795,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G373" t="inlineStr"/>
@@ -10855,7 +10855,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G375" t="inlineStr"/>
@@ -10908,7 +10908,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G377" t="inlineStr"/>
@@ -10964,7 +10964,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G379" t="inlineStr"/>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G381" t="inlineStr"/>
@@ -11069,7 +11069,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G383" t="inlineStr"/>
@@ -11122,7 +11122,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G385" t="inlineStr"/>
@@ -11289,7 +11289,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G391" t="inlineStr"/>
@@ -11340,7 +11340,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G393" t="inlineStr"/>
@@ -11369,7 +11369,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G394" t="inlineStr"/>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G395" t="inlineStr"/>
@@ -11425,7 +11425,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G396" t="inlineStr"/>
@@ -11481,7 +11481,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G398" t="inlineStr"/>
@@ -11558,7 +11558,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Off Target Movement || Application Instructions</t>
+          <t>application instructions || off target movement</t>
         </is>
       </c>
       <c r="G401" t="inlineStr"/>
@@ -11608,7 +11608,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G403" t="inlineStr"/>
@@ -11904,7 +11904,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G415" t="inlineStr"/>
@@ -11932,7 +11932,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G416" t="inlineStr"/>
@@ -12038,7 +12038,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G419" t="inlineStr"/>
@@ -12071,7 +12071,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G420" t="inlineStr"/>
@@ -12099,7 +12099,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G421" t="inlineStr"/>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G424" t="inlineStr"/>
@@ -12224,7 +12224,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G425" t="inlineStr"/>
@@ -12309,7 +12309,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G428" t="inlineStr"/>
@@ -12361,7 +12361,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G430" t="inlineStr"/>
@@ -12704,7 +12704,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G440" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G451" t="inlineStr"/>
@@ -13069,7 +13069,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G453" t="inlineStr"/>
@@ -13168,7 +13168,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G456" t="inlineStr"/>
@@ -13392,7 +13392,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G465" t="inlineStr"/>
@@ -13554,7 +13554,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions || mixing</t>
         </is>
       </c>
       <c r="G471" t="inlineStr"/>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G472" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G473" t="inlineStr"/>
@@ -13650,7 +13650,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G474" t="inlineStr"/>
@@ -13679,7 +13679,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G475" t="inlineStr"/>
@@ -13707,7 +13707,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G476" t="inlineStr"/>
@@ -13789,7 +13789,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G479" t="inlineStr"/>
@@ -13826,7 +13826,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G480" t="inlineStr"/>
@@ -13910,7 +13910,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G483" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G484" t="inlineStr"/>
@@ -14017,7 +14017,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G486" t="inlineStr"/>
@@ -14051,7 +14051,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G487" t="inlineStr"/>
@@ -14156,7 +14156,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions || mixing</t>
         </is>
       </c>
       <c r="G491" t="inlineStr"/>
@@ -14187,7 +14187,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G492" t="inlineStr"/>
@@ -14223,7 +14223,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G493" t="inlineStr"/>
@@ -14256,7 +14256,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G494" t="inlineStr"/>
@@ -14318,7 +14318,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G496" t="inlineStr"/>
@@ -14399,7 +14399,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G499" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G500" t="inlineStr"/>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G501" t="inlineStr"/>
@@ -14524,7 +14524,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G503" t="inlineStr"/>
@@ -14559,7 +14559,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G504" t="inlineStr"/>
@@ -14592,7 +14592,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G505" t="inlineStr"/>
@@ -14619,7 +14619,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G506" t="inlineStr"/>
@@ -14650,7 +14650,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G507" t="inlineStr"/>
@@ -14679,7 +14679,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G508" t="inlineStr"/>
@@ -14756,7 +14756,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G511" t="inlineStr"/>
@@ -14812,7 +14812,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G513" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G515" t="inlineStr"/>
@@ -15138,7 +15138,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G526" t="inlineStr"/>
@@ -15198,7 +15198,7 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G528" t="inlineStr"/>
@@ -15297,7 +15297,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G531" t="inlineStr"/>
@@ -15326,7 +15326,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G532" t="inlineStr"/>
